--- a/biology/Zoologie/Geai_du_Yucatan/Geai_du_Yucatan.xlsx
+++ b/biology/Zoologie/Geai_du_Yucatan/Geai_du_Yucatan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanocorax yucatanicus
 Le Geai du Yucatan (Cyanocorax yucatanicus) est une espèce de passereau de la famille des Corvidae.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau mesure 31[1] à 33 cm de long. 
-L'adulte est noir avec le dos, les ailes et le dessus de la queue d'un beau bleu. Le dessous des rectrices est noir et les tectrices sous-caudales sont bleu noirâtre. Le bec est noir et les pattes roussâtres[1].
-Chez les jeunes, les parties qui sont noires chez l'adulte sont blanches. Le dos, les ailes et le dessus de la queue sont bleu légèrement verdâtre. Le dessous des rectrices est noir mais les rectrices latérales sont terminées de blanc. Les plumes des jambes sont noires, les pattes roussâtres et le bec est blanchâtre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau mesure 31 à 33 cm de long. 
+L'adulte est noir avec le dos, les ailes et le dessus de la queue d'un beau bleu. Le dessous des rectrices est noir et les tectrices sous-caudales sont bleu noirâtre. Le bec est noir et les pattes roussâtres.
+Chez les jeunes, les parties qui sont noires chez l'adulte sont blanches. Le dos, les ailes et le dessus de la queue sont bleu légèrement verdâtre. Le dessous des rectrices est noir mais les rectrices latérales sont terminées de blanc. Les plumes des jambes sont noires, les pattes roussâtres et le bec est blanchâtre.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par deux sous-espèces :
 Cyanocorax yucatanicus yucatanicus ;
@@ -577,9 +593,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cyanocitta yucatanica Dubois, 1875 (protonyme)[1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cyanocitta yucatanica Dubois, 1875 (protonyme)</t>
         </is>
       </c>
     </row>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dubois, A. 1875. Description de quelques oiseaux nouveaux. Bulletins de l'Académie royale des sciences, des lettres et des beaux-arts de Belgique, 2(40): 797-801. (Cyanocitta yucatanica p. 797)</t>
         </is>
